--- a/grape_dane/dane_uzupelnione.xlsx
+++ b/grape_dane/dane_uzupelnione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monwe\Desktop\doktoranckie\artykuł GRAPE\grape_dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC01F7F-BB6F-404C-A8C9-17AF1EF14048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3745C634-D9DF-49DF-854E-01EB8FC95694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{2EEB7E1A-C7BF-4973-A21E-49D13DD6F1B9}"/>
   </bookViews>
@@ -1391,10 +1391,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABD8B8-B8EE-49DE-B172-92394F632295}">
   <dimension ref="A1:BU477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="L423" sqref="L423"/>
+      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P30" s="10">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P31" s="25">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P32" s="25">
         <v>40</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P34" s="25">
         <v>40</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P36" s="25">
         <v>36</v>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="25">
         <v>10</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" s="25">
         <v>10</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" s="25">
         <v>10</v>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49" s="25">
         <v>10</v>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P50" s="25">
         <v>10</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P53" s="25">
         <v>10</v>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P54" s="25">
         <v>10</v>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P55" s="25">
         <v>10</v>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="O56" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P56" s="25">
         <v>10</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P57" s="17">
         <v>10</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" s="25">
         <v>35</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" s="25">
         <v>31</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P97" s="25">
         <v>31</v>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="O99" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99" s="25">
         <v>28</v>
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="O100" s="25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P100" s="25">
         <v>26</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P101" s="25">
         <v>24</v>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="O102" s="25">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P102" s="25">
         <v>24</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="O103" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P103" s="25">
         <v>21</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="O104" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P104" s="25">
         <v>20</v>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="O105" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P105" s="25">
         <v>19</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P106" s="25">
         <v>19</v>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P107" s="25">
         <v>19</v>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P108" s="25">
         <v>19</v>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="O109" s="25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P109" s="25">
         <v>19</v>
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="O110" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P110" s="25">
         <v>19</v>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="O111" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P111" s="25">
         <v>19</v>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="O112" s="25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P112" s="25">
         <v>19</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="O113" s="17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P113" s="17">
         <v>19</v>
@@ -7806,7 +7806,7 @@
       <c r="N114" s="25">
         <v>0</v>
       </c>
-      <c r="O114" s="25">
+      <c r="O114" s="10">
         <v>0</v>
       </c>
       <c r="P114" s="25">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P126" s="25">
         <v>26</v>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="O127" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P127" s="25">
         <v>26</v>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="O128" s="25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P128" s="25">
         <v>24</v>
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="O129" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P129" s="25">
         <v>23</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="O130" s="25">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P130" s="25">
         <v>22</v>
@@ -8784,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="O131" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P131" s="25">
         <v>21</v>
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="O132" s="25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P132" s="25">
         <v>21</v>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="O133" s="25">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P133" s="25">
         <v>21</v>
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="O134" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P134" s="25">
         <v>21</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="O135" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P135" s="25">
         <v>21</v>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="O136" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P136" s="25">
         <v>21</v>
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="O137" s="25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P137" s="25">
         <v>21</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="O138" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P138" s="25">
         <v>20</v>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="O139" s="25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P139" s="25">
         <v>20</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="O140" s="25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P140" s="25">
         <v>20</v>
@@ -9353,8 +9353,8 @@
       <c r="N141" s="25">
         <v>1</v>
       </c>
-      <c r="O141" s="25">
-        <v>6</v>
+      <c r="O141" s="17">
+        <v>15</v>
       </c>
       <c r="P141" s="25">
         <v>20</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P157" s="25">
         <v>20</v>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P158" s="25">
         <v>20</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P159" s="25">
         <v>20</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P160" s="25">
         <v>20</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="O164" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" s="25">
         <v>20</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O166" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P166" s="25">
         <v>20</v>
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P167" s="25">
         <v>20</v>
@@ -10871,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P168" s="25">
         <v>18</v>
@@ -10927,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="O169" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P169" s="17">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P174" s="25">
         <v>18</v>
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P176" s="25">
         <v>18</v>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178" s="25">
         <v>18</v>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P180" s="25">
         <v>18</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P181" s="25">
         <v>18</v>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P182" s="25">
         <v>18</v>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="O183" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P183" s="25">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P184" s="25">
         <v>16</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="O185" s="25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P185" s="25">
         <v>17.329999999999998</v>
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="O186" s="25">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P186" s="25">
         <v>20</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P187" s="25">
         <v>20</v>
@@ -11991,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="O188" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P188" s="25">
         <v>20</v>
@@ -12047,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="O189" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P189" s="25">
         <v>19</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="O192" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P192" s="25">
         <v>19</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="O193" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P193" s="25">
         <v>19</v>
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="O194" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P194" s="25">
         <v>19</v>
@@ -12439,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="O196" s="25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P196" s="25">
         <v>9</v>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="O197" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P197" s="17">
         <v>9</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P227" s="25">
         <v>0</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="O230" s="25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P230" s="25">
         <v>29</v>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="O231" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P231" s="25">
         <v>29</v>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="O232" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P232" s="25">
         <v>29</v>
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="O233" s="25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P233" s="25">
         <v>29</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P234" s="25">
         <v>29</v>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="O235" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P235" s="25">
         <v>29</v>
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="O236" s="25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P236" s="25">
         <v>24</v>
@@ -14847,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="O239" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P239" s="25">
         <v>15</v>
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="O240" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P240" s="25">
         <v>15</v>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="O241" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P241" s="25">
         <v>15</v>
@@ -15015,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="O242" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P242" s="25">
         <v>15</v>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
       <c r="O243" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P243" s="25">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="O244" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P244" s="25">
         <v>20</v>
@@ -15183,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="O245" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P245" s="25">
         <v>15</v>
@@ -15239,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="O246" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P246" s="25">
         <v>15</v>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="O247" s="25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P247" s="25">
         <v>15</v>
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="O248" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P248" s="25">
         <v>15</v>
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="O249" s="25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P249" s="25">
         <v>15</v>
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="O250" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P250" s="25">
         <v>15</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="O251" s="25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P251" s="25">
         <v>15</v>
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="O252" s="25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P252" s="25">
         <v>15</v>
@@ -15631,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="O253" s="25">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P253" s="25">
         <v>15</v>
@@ -15686,7 +15686,7 @@
       <c r="N254" s="10">
         <v>0</v>
       </c>
-      <c r="O254" s="10">
+      <c r="O254" s="25">
         <v>0</v>
       </c>
       <c r="P254" s="10">
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="O255" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P255" s="25">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="O256" s="25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P256" s="25">
         <v>0</v>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="O257" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P257" s="25">
         <v>0</v>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
       <c r="O258" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P258" s="25">
         <v>25</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="O259" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P259" s="25">
         <v>25</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="O260" s="25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P260" s="25">
         <v>25</v>
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="O261" s="25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P261" s="25">
         <v>25</v>
@@ -16135,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="O262" s="25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P262" s="25">
         <v>25</v>
@@ -16415,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="O267" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" s="25">
         <v>15</v>
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="O268" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P268" s="25">
         <v>15</v>
@@ -16527,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="O269" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P269" s="25">
         <v>15</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="O270" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P270" s="25">
         <v>15</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="O271" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P271" s="25">
         <v>15</v>
@@ -16695,7 +16695,7 @@
         <v>1</v>
       </c>
       <c r="O272" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P272" s="25">
         <v>15</v>
@@ -16751,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="O273" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P273" s="25">
         <v>15</v>
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="O274" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P274" s="25">
         <v>15</v>
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="O275" s="25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P275" s="25">
         <v>15</v>
@@ -16919,7 +16919,7 @@
         <v>1</v>
       </c>
       <c r="O276" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P276" s="25">
         <v>15</v>
@@ -16975,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="O277" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P277" s="25">
         <v>15</v>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="O278" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P278" s="25">
         <v>15</v>
@@ -17087,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="O279" s="25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P279" s="25">
         <v>15</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="O280" s="25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P280" s="25">
         <v>15</v>
@@ -17198,8 +17198,8 @@
       <c r="N281" s="17">
         <v>1</v>
       </c>
-      <c r="O281" s="17">
-        <v>0</v>
+      <c r="O281" s="25">
+        <v>15</v>
       </c>
       <c r="P281" s="17">
         <v>20</v>
@@ -18822,8 +18822,8 @@
       <c r="N310" s="10">
         <v>0</v>
       </c>
-      <c r="O310" s="10">
-        <v>3</v>
+      <c r="O310" s="25">
+        <v>0</v>
       </c>
       <c r="P310" s="10">
         <v>40</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="O311" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P311" s="25">
         <v>40</v>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="O314" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P314" s="25">
         <v>40</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="O315" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P315" s="25">
         <v>40</v>
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="O316" s="25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P316" s="25">
         <v>38</v>
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="O317" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P317" s="25">
         <v>36</v>
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="O318" s="25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P318" s="25">
         <v>34</v>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="O319" s="25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P319" s="25">
         <v>30</v>
@@ -19383,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="O320" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P320" s="25">
         <v>28</v>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="O321" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P321" s="25">
         <v>28</v>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="O322" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P322" s="25">
         <v>27</v>
@@ -19551,7 +19551,7 @@
         <v>1</v>
       </c>
       <c r="O323" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P323" s="25">
         <v>19</v>
@@ -19607,7 +19607,7 @@
         <v>1</v>
       </c>
       <c r="O324" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P324" s="25">
         <v>19</v>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="O325" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P325" s="25">
         <v>19</v>
@@ -19719,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="O326" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P326" s="25">
         <v>19</v>
@@ -19775,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="O327" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P327" s="25">
         <v>19</v>
@@ -19831,7 +19831,7 @@
         <v>1</v>
       </c>
       <c r="O328" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P328" s="25">
         <v>19</v>
@@ -19887,7 +19887,7 @@
         <v>1</v>
       </c>
       <c r="O329" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P329" s="25">
         <v>19</v>
@@ -19943,7 +19943,7 @@
         <v>1</v>
       </c>
       <c r="O330" s="25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P330" s="25">
         <v>19</v>
@@ -19999,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="O331" s="25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P331" s="25">
         <v>19</v>
@@ -20055,7 +20055,7 @@
         <v>1</v>
       </c>
       <c r="O332" s="25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P332" s="25">
         <v>19</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="O333" s="25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P333" s="25">
         <v>19</v>
@@ -20167,7 +20167,7 @@
         <v>1</v>
       </c>
       <c r="O334" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P334" s="25">
         <v>19</v>
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="O335" s="25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P335" s="25">
         <v>19</v>
@@ -20278,8 +20278,8 @@
       <c r="N336" s="17">
         <v>1</v>
       </c>
-      <c r="O336" s="17">
-        <v>0</v>
+      <c r="O336" s="25">
+        <v>14</v>
       </c>
       <c r="P336" s="17">
         <v>19</v>
@@ -20334,8 +20334,8 @@
       <c r="N337" s="17">
         <v>1</v>
       </c>
-      <c r="O337" s="17">
-        <v>0</v>
+      <c r="O337" s="25">
+        <v>15</v>
       </c>
       <c r="P337" s="17">
         <v>19</v>
@@ -20391,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="O338" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P338" s="25">
         <v>45</v>
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="O339" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P339" s="25">
         <v>45</v>
@@ -20503,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="O340" s="25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P340" s="25">
         <v>45</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="O341" s="25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P341" s="25">
         <v>45</v>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="O342" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P342" s="25">
         <v>38</v>
@@ -20671,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="O343" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P343" s="25">
         <v>38</v>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="O344" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P344" s="25">
         <v>38</v>
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="O345" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P345" s="25">
         <v>38</v>
@@ -20951,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="O348" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P348" s="25">
         <v>25</v>
@@ -21007,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="O349" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P349" s="25">
         <v>25</v>
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="O350" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P350" s="25">
         <v>25</v>
@@ -21119,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P351" s="25">
         <v>25</v>
@@ -21287,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="O354" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" s="25">
         <v>16</v>
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="O355" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P355" s="25">
         <v>16</v>
@@ -21399,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="O356" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P356" s="25">
         <v>16</v>
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="O357" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P357" s="25">
         <v>16</v>
@@ -21511,7 +21511,7 @@
         <v>1</v>
       </c>
       <c r="O358" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P358" s="25">
         <v>16</v>
@@ -21567,7 +21567,7 @@
         <v>1</v>
       </c>
       <c r="O359" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P359" s="25">
         <v>16</v>
@@ -21623,7 +21623,7 @@
         <v>1</v>
       </c>
       <c r="O360" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P360" s="25">
         <v>16</v>
@@ -21679,7 +21679,7 @@
         <v>1</v>
       </c>
       <c r="O361" s="25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P361" s="25">
         <v>16</v>
@@ -21735,7 +21735,7 @@
         <v>1</v>
       </c>
       <c r="O362" s="25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P362" s="25">
         <v>16</v>
@@ -21791,7 +21791,7 @@
         <v>1</v>
       </c>
       <c r="O363" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P363" s="25">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="O364" s="25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P364" s="25">
         <v>16</v>
@@ -21903,7 +21903,7 @@
         <v>1</v>
       </c>
       <c r="O365" s="25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P365" s="25">
         <v>16</v>
